--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Total Num</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Total Triplets (Approx)</t>
+  </si>
+  <si>
+    <t>Add Next: Stores of Same Type Average</t>
+  </si>
+  <si>
+    <t>Add Next: All Stores Average</t>
+  </si>
+  <si>
+    <t>Add Next: All Depts of Same Store</t>
   </si>
 </sst>
 </file>
@@ -128,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,11 +160,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,9 +198,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -188,10 +205,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -504,10 +525,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -595,14 +616,14 @@
         <v>195104</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -616,7 +637,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
@@ -627,21 +648,57 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>105</v>
       </c>
       <c r="C14" s="2">
-        <v>464</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <f>39*99*45</f>
         <v>173745</v>
       </c>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Total Num</t>
   </si>
@@ -93,6 +93,42 @@
   </si>
   <si>
     <t>Add Next: All Depts of Same Store</t>
+  </si>
+  <si>
+    <t>Method #</t>
+  </si>
+  <si>
+    <t>Submission #</t>
+  </si>
+  <si>
+    <t>Prediction Methods Sequence</t>
+  </si>
+  <si>
+    <t>Kaggle Results</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Prediction Method Type</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>50, 25, 15, 10 weights</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5 order</t>
   </si>
 </sst>
 </file>
@@ -137,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,11 +207,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,6 +260,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -209,10 +274,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,17 +598,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
@@ -525,10 +631,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -616,97 +722,227 @@
         <v>195104</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="23">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>105</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="23">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>105</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="23">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>31</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>1</v>
+      </c>
+      <c r="B21" s="32">
+        <v>42475</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="31">
+        <v>3475</v>
+      </c>
+      <c r="F21" s="31">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>2</v>
+      </c>
+      <c r="B22" s="32">
+        <v>42475</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3472</v>
+      </c>
+      <c r="F22" s="31">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>4</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>5</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B28">
         <f>39*99*45</f>
         <v>173745</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="regression" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Total Num</t>
   </si>
@@ -129,12 +130,66 @@
   </si>
   <si>
     <t>2, 3, 4, 5 order</t>
+  </si>
+  <si>
+    <t>Weighted Average + regression weights</t>
+  </si>
+  <si>
+    <t>Same as 5, but min 40 pts required for regression fit</t>
+  </si>
+  <si>
+    <t>Same as 5</t>
+  </si>
+  <si>
+    <t>50, 25, 10, 10 and max 20 regression weight, R2 Thresh = 0.5</t>
+  </si>
+  <si>
+    <t>40, 15, 5, 40 and max 5 regression weight, R2 Thresh = 0.3</t>
+  </si>
+  <si>
+    <t>40, 15, 5, 5 and max 20 regression weight, R2 Thresh = 0.3</t>
+  </si>
+  <si>
+    <t>50, 25, 10, 10 and max 15 regression weight, R2 Thresh = 0.3</t>
+  </si>
+  <si>
+    <t>50, 5, 5, 5 and max 10 regression weight, R2 Thresh = 0.5</t>
+  </si>
+  <si>
+    <t>50, 1, 1, 1 and max 10 regression weight, R2 Thresh = 0.5</t>
+  </si>
+  <si>
+    <t>Veera method. Method 1, and fill with 0 if null prediction</t>
+  </si>
+  <si>
+    <t>weightings: 0.5, 1, 0.5 for +/- 1 weeks</t>
+  </si>
+  <si>
+    <t>Kaggle Percentile</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5, 1, 0.5 weekOffset weightings, 2, 4, 8 year weightings, 50, 1, 1, 1 prediction method weightings, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5, 1, 0.5 weekOffset weightings, 2, 6, 18 year weightings, 50, 1, 1, 1 prediction method weightings, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5, 1, 0.5 weekOffset weightings, 2, 10, 30 year weightings, 50, 1, 1, 1 prediction method weightings, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5, 1, 0.5 weekOffset weightings, 2, 10, 50 year weightings, 50, 1, 1, 1 prediction method weightings, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,22 +326,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,6 +363,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,6 +410,1494 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Count of Store-Dept doubles with R2 correlation above thresholds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10309414153419502"/>
+          <c:y val="0.12095309177451381"/>
+          <c:w val="0.84049253277302605"/>
+          <c:h val="0.73709412689268017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>regression!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>regression!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>regression!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>regression!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fuel Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>regression!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>regression!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>regression!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>regression!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>regression!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>regression!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>regression!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>regression!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1935947888"/>
+        <c:axId val="1935948976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1935947888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t> Threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1935948976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1935948976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Num</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> Store-Dept's</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1935947888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51539549462791967"/>
+          <c:y val="0.26755279844702395"/>
+          <c:w val="0.15393895252223533"/>
+          <c:h val="0.21254075765623606"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,18 +2163,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
@@ -631,10 +2197,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -723,17 +2289,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -747,7 +2313,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -759,9 +2325,21 @@
       <c r="D13" s="2">
         <v>636</v>
       </c>
+      <c r="E13" s="31">
+        <f>C13/H13</f>
+        <v>4.5325045325045327E-4</v>
+      </c>
+      <c r="F13" s="31">
+        <f>D13/H13</f>
+        <v>2.7454027454027453E-3</v>
+      </c>
+      <c r="H13">
+        <f>45*99*52</f>
+        <v>231660</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="19">
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -773,9 +2351,17 @@
       <c r="D14" s="2">
         <v>493</v>
       </c>
+      <c r="E14" s="31">
+        <f>C14/H13</f>
+        <v>4.5325045325045327E-4</v>
+      </c>
+      <c r="F14" s="31">
+        <f>D14/H13</f>
+        <v>2.1281187947854614E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>3</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -789,7 +2375,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="19">
         <v>4</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -802,80 +2388,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>5</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>0</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="G20" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <v>1</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="28">
         <v>42475</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="27">
         <v>3475</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="27">
         <v>301</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="G21" s="32">
+        <f>(691-F21)/691</f>
+        <v>0.56439942112879882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>2</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="28">
         <v>42475</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -884,56 +2478,311 @@
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="27">
         <v>3472</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="27">
         <v>301</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="G22" s="32">
+        <f t="shared" ref="G22:G33" si="1">(691-F22)/691</f>
+        <v>0.56439942112879882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>3</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="B23" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="27">
+        <v>3934</v>
+      </c>
+      <c r="F23" s="27">
+        <v>356</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" si="1"/>
+        <v>0.48480463096960924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>4</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="B24" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="27">
+        <v>3580</v>
+      </c>
+      <c r="F24" s="27">
+        <v>318</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="1"/>
+        <v>0.53979739507959479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>5</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B25" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3627</v>
+      </c>
+      <c r="F25" s="27">
+        <v>328</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="1"/>
+        <v>0.52532561505065123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>6</v>
+      </c>
+      <c r="B26" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="27">
+        <v>3631</v>
+      </c>
+      <c r="F26" s="27">
+        <v>328</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="1"/>
+        <v>0.52532561505065123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>7</v>
+      </c>
+      <c r="B27" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="27">
+        <v>3482</v>
+      </c>
+      <c r="F27" s="27">
+        <v>302</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="1"/>
+        <v>0.56295224312590453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>8</v>
+      </c>
+      <c r="B28" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="27">
+        <v>3482</v>
+      </c>
+      <c r="F28" s="27">
+        <v>302</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="1"/>
+        <v>0.56295224312590453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>9</v>
+      </c>
+      <c r="B29" s="28">
+        <v>42476</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="27">
+        <v>3472</v>
+      </c>
+      <c r="F29" s="27">
+        <v>301</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="1"/>
+        <v>0.56439942112879882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>10</v>
+      </c>
+      <c r="B30" s="28">
+        <v>42486</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3475</v>
+      </c>
+      <c r="F30" s="27">
+        <v>301</v>
+      </c>
+      <c r="G30" s="32">
+        <f t="shared" si="1"/>
+        <v>0.56439942112879882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>12</v>
+      </c>
+      <c r="B32" s="28">
+        <v>42488</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="40">
+        <v>3268</v>
+      </c>
+      <c r="F32" s="40">
+        <v>244</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="1"/>
+        <v>0.64688856729377708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>13</v>
+      </c>
+      <c r="B33" s="28">
+        <v>42488</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="42">
+        <v>3183</v>
+      </c>
+      <c r="F33" s="42">
+        <v>224</v>
+      </c>
+      <c r="G33" s="43">
+        <f t="shared" si="1"/>
+        <v>0.6758321273516642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>14</v>
+      </c>
+      <c r="B34" s="28">
+        <v>42488</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="42">
+        <v>3128</v>
+      </c>
+      <c r="F34" s="42">
+        <v>211</v>
+      </c>
+      <c r="G34" s="43">
+        <f t="shared" ref="G34:G35" si="2">(691-F34)/691</f>
+        <v>0.69464544138929085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>15</v>
+      </c>
+      <c r="B35" s="28">
+        <v>42488</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="42">
+        <v>3115</v>
+      </c>
+      <c r="F35" s="42">
+        <v>209</v>
+      </c>
+      <c r="G35" s="43">
+        <f t="shared" si="2"/>
+        <v>0.69753979739507954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B28">
+      <c r="B36">
         <f>39*99*45</f>
         <v>173745</v>
       </c>
@@ -942,9 +2791,233 @@
   <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>497</v>
+      </c>
+      <c r="D5">
+        <v>368</v>
+      </c>
+      <c r="E5">
+        <v>519</v>
+      </c>
+      <c r="F5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>301</v>
+      </c>
+      <c r="D6">
+        <v>190</v>
+      </c>
+      <c r="E6">
+        <v>263</v>
+      </c>
+      <c r="F6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>168</v>
+      </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>108</v>
+      </c>
+      <c r="F7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.5</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.6</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.7</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>45*99</f>
+        <v>4455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>